--- a/campionato/squadre/levante/defelice/defelice.xlsx
+++ b/campionato/squadre/levante/defelice/defelice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reus3111/Clip_Pianese/sito_web/campionato/squadre/levante/defelice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC535CE7-D7E5-FF43-877B-B7B61DDE9555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC674C0-4D12-EF49-A82B-058B1C9F8030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,10 +735,10 @@
         <v>38</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="G8">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
